--- a/natmiOut/OldD0/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.7262959960364</v>
+        <v>23.77057966666666</v>
       </c>
       <c r="N2">
-        <v>21.7262959960364</v>
+        <v>71.31173899999999</v>
       </c>
       <c r="O2">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="P2">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="Q2">
-        <v>1758.662362739242</v>
+        <v>1968.92872967993</v>
       </c>
       <c r="R2">
-        <v>1758.662362739242</v>
+        <v>17720.35856711937</v>
       </c>
       <c r="S2">
-        <v>0.1078548651304776</v>
+        <v>0.1148589775025267</v>
       </c>
       <c r="T2">
-        <v>0.1078548651304776</v>
+        <v>0.1148589775025268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H3">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.2544654525052</v>
+        <v>29.46642766666666</v>
       </c>
       <c r="N3">
-        <v>29.2544654525052</v>
+        <v>88.399283</v>
       </c>
       <c r="O3">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="P3">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="Q3">
-        <v>2368.039510405377</v>
+        <v>2440.718602890986</v>
       </c>
       <c r="R3">
-        <v>2368.039510405377</v>
+        <v>21966.46742601888</v>
       </c>
       <c r="S3">
-        <v>0.1452266150852306</v>
+        <v>0.1423812039885396</v>
       </c>
       <c r="T3">
-        <v>0.1452266150852306</v>
+        <v>0.1423812039885397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H4">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0814649233862</v>
+        <v>12.31452</v>
       </c>
       <c r="N4">
-        <v>12.0814649233862</v>
+        <v>36.94356</v>
       </c>
       <c r="O4">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983258</v>
       </c>
       <c r="P4">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983257</v>
       </c>
       <c r="Q4">
-        <v>977.9493776292957</v>
+        <v>1020.01770929544</v>
       </c>
       <c r="R4">
-        <v>977.9493776292957</v>
+        <v>9180.159383658958</v>
       </c>
       <c r="S4">
-        <v>0.05997546798258357</v>
+        <v>0.05950352054804395</v>
       </c>
       <c r="T4">
-        <v>0.05997546798258357</v>
+        <v>0.05950352054804396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H5">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.7262959960364</v>
+        <v>23.77057966666666</v>
       </c>
       <c r="N5">
-        <v>21.7262959960364</v>
+        <v>71.31173899999999</v>
       </c>
       <c r="O5">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="P5">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="Q5">
-        <v>3303.070155482767</v>
+        <v>3633.368306278486</v>
       </c>
       <c r="R5">
-        <v>3303.070155482767</v>
+        <v>32700.31475650637</v>
       </c>
       <c r="S5">
-        <v>0.2025699723176035</v>
+        <v>0.2119553451876721</v>
       </c>
       <c r="T5">
-        <v>0.2025699723176035</v>
+        <v>0.2119553451876721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.2544654525052</v>
+        <v>29.46642766666666</v>
       </c>
       <c r="N6">
-        <v>29.2544654525052</v>
+        <v>88.399283</v>
       </c>
       <c r="O6">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="P6">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="Q6">
-        <v>4447.58516446614</v>
+        <v>4503.987108629374</v>
       </c>
       <c r="R6">
-        <v>4447.58516446614</v>
+        <v>40535.88397766437</v>
       </c>
       <c r="S6">
-        <v>0.2727605413256536</v>
+        <v>0.262743565159836</v>
       </c>
       <c r="T6">
-        <v>0.2727605413256536</v>
+        <v>0.262743565159836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H7">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.0814649233862</v>
+        <v>12.31452</v>
       </c>
       <c r="N7">
-        <v>12.0814649233862</v>
+        <v>36.94356</v>
       </c>
       <c r="O7">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983258</v>
       </c>
       <c r="P7">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983257</v>
       </c>
       <c r="Q7">
-        <v>1836.756998534358</v>
+        <v>1882.29261980412</v>
       </c>
       <c r="R7">
-        <v>1836.756998534358</v>
+        <v>16940.63357823708</v>
       </c>
       <c r="S7">
-        <v>0.1126442360691817</v>
+        <v>0.1098049931479231</v>
       </c>
       <c r="T7">
-        <v>0.1126442360691817</v>
+        <v>0.1098049931479231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H8">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I8">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J8">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7262959960364</v>
+        <v>23.77057966666666</v>
       </c>
       <c r="N8">
-        <v>21.7262959960364</v>
+        <v>71.31173899999999</v>
       </c>
       <c r="O8">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="P8">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="Q8">
-        <v>555.9749719350115</v>
+        <v>613.8604345911139</v>
       </c>
       <c r="R8">
-        <v>555.9749719350115</v>
+        <v>5524.743911320024</v>
       </c>
       <c r="S8">
-        <v>0.03409671286793935</v>
+        <v>0.03581002236574289</v>
       </c>
       <c r="T8">
-        <v>0.03409671286793935</v>
+        <v>0.0358100223657429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H9">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I9">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J9">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.2544654525052</v>
+        <v>29.46642766666666</v>
       </c>
       <c r="N9">
-        <v>29.2544654525052</v>
+        <v>88.399283</v>
       </c>
       <c r="O9">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="P9">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="Q9">
-        <v>748.620501713572</v>
+        <v>760.9521663736579</v>
       </c>
       <c r="R9">
-        <v>748.620501713572</v>
+        <v>6848.569497362921</v>
       </c>
       <c r="S9">
-        <v>0.04591123626508149</v>
+        <v>0.04439073209735687</v>
       </c>
       <c r="T9">
-        <v>0.04591123626508149</v>
+        <v>0.04439073209735688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.0814649233862</v>
+        <v>12.31452</v>
       </c>
       <c r="N10">
-        <v>12.0814649233862</v>
+        <v>36.94356</v>
       </c>
       <c r="O10">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983258</v>
       </c>
       <c r="P10">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983257</v>
       </c>
       <c r="Q10">
-        <v>309.1641632305328</v>
+        <v>318.0148193685599</v>
       </c>
       <c r="R10">
-        <v>309.1641632305328</v>
+        <v>2862.133374317039</v>
       </c>
       <c r="S10">
-        <v>0.01896035295624857</v>
+        <v>0.01855164000235873</v>
       </c>
       <c r="T10">
-        <v>0.01896035295624857</v>
+        <v>0.01855164000235873</v>
       </c>
     </row>
   </sheetData>
